--- a/Documents/Deliverable_4/CSwap_Deliverable_4_SprintBacklog.xlsx
+++ b/Documents/Deliverable_4/CSwap_Deliverable_4_SprintBacklog.xlsx
@@ -5,21 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyc\Documents\GitHub\COS420_Project\Documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Github\COS420_Project\Documents\Deliverable_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909510EF-4603-4FCA-B047-9F309CAEF033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC692E-E8CD-419F-BB12-74BFE4B9B032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54360" yWindow="705" windowWidth="28800" windowHeight="17025" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sprint_Backlog_1" sheetId="4" r:id="rId2"/>
     <sheet name="Sprint_Backlog_2" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint_Backlog_3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sprint_Backlog_4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhrIMTCdqdCSnicGfR0Ek4mKVKPZg=="/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -139,13 +150,37 @@
   </si>
   <si>
     <t>Cedric, Anthony</t>
+  </si>
+  <si>
+    <t>As an authorized user I want to navigate to a lease section so that I can buy leases.</t>
+  </si>
+  <si>
+    <t>As an authorized user I want to be able to navigate to an electronics section so that I can buy electronics.</t>
+  </si>
+  <si>
+    <t>As an authorized user I want to be able to sell my electronics so that I can get money for my electronics.</t>
+  </si>
+  <si>
+    <t>As an authorized user I want to list furniture so that I can sell furniture I no longer need.</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Listing Navigation</t>
+  </si>
+  <si>
+    <t>Create Listing</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +201,41 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -221,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,40 +329,661 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -320,9 +1011,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sprint 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -354,34 +1045,51 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17A0F2AD-416E-42BD-9586-963D4ED1B45F}" name="Table_13" displayName="Table_13" ref="A1:I6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17A0F2AD-416E-42BD-9586-963D4ED1B45F}" name="Table_13" displayName="Table_13" ref="A1:I6" dataDxfId="24">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EEB20F0C-EDBF-41E9-8288-40113A66CDDC}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{ACAACE92-CA15-4EB6-8B7E-8345E1780447}" name="User Story"/>
-    <tableColumn id="3" xr3:uid="{63747FA4-1B1C-42E2-85C3-91722F730D8D}" name="Story Tasks"/>
-    <tableColumn id="4" xr3:uid="{06938DF0-26C0-4913-ACB7-6F61732EB5B6}" name="Sprint Number"/>
-    <tableColumn id="5" xr3:uid="{5CD9845E-CBB7-47DD-97DB-1FB20717DCEB}" name="Sprint Goal"/>
-    <tableColumn id="6" xr3:uid="{E61CFD6A-8D41-4BF1-8D41-A3EE845F3843}" name="Story Type"/>
-    <tableColumn id="7" xr3:uid="{AB8AB67F-6072-476C-840B-D21D859FF7E0}" name="Story Points"/>
-    <tableColumn id="8" xr3:uid="{69A0E7B1-8172-4457-B40B-53DFB3C88CB6}" name="Story Points Completed"/>
-    <tableColumn id="9" xr3:uid="{ABEEE2B5-4BED-464B-B759-86F48A45DFC1}" name="Names and Contribution Percentage"/>
+    <tableColumn id="1" xr3:uid="{EEB20F0C-EDBF-41E9-8288-40113A66CDDC}" name="ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{ACAACE92-CA15-4EB6-8B7E-8345E1780447}" name="User Story" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{63747FA4-1B1C-42E2-85C3-91722F730D8D}" name="Story Tasks" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{06938DF0-26C0-4913-ACB7-6F61732EB5B6}" name="Sprint Number" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{5CD9845E-CBB7-47DD-97DB-1FB20717DCEB}" name="Sprint Goal" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{E61CFD6A-8D41-4BF1-8D41-A3EE845F3843}" name="Story Type" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{AB8AB67F-6072-476C-840B-D21D859FF7E0}" name="Story Points" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{69A0E7B1-8172-4457-B40B-53DFB3C88CB6}" name="Story Points Completed" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{ABEEE2B5-4BED-464B-B759-86F48A45DFC1}" name="Names and Contribution Percentage" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="Sprint 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9ECFD424-8CF1-42FB-8D5F-DD95CE605177}" name="Table_15" displayName="Table_15" ref="A1:I3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9ECFD424-8CF1-42FB-8D5F-DD95CE605177}" name="Table_15" displayName="Table_15" ref="A1:I3" dataDxfId="12">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0C90C078-C054-4227-9091-C28BAFE691AF}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{9F8707D6-34E3-4CEF-B0F1-DAD2AD71531B}" name="User Story"/>
-    <tableColumn id="3" xr3:uid="{AE0C2CB6-5018-4C2F-A209-C5487CF2A08A}" name="Story Tasks"/>
-    <tableColumn id="4" xr3:uid="{679AF5F3-ABDC-491D-B0C6-8362005452C8}" name="Sprint Number"/>
-    <tableColumn id="5" xr3:uid="{581162C1-539F-476A-91CE-4B78BE14DBBE}" name="Sprint Goal"/>
-    <tableColumn id="6" xr3:uid="{E4DFD532-2531-4750-B4F1-447592E45CF2}" name="Story Type"/>
-    <tableColumn id="7" xr3:uid="{BC181D14-6E45-478C-90E5-C3965ADAC5E4}" name="Story Points"/>
-    <tableColumn id="8" xr3:uid="{EEBADD8E-3942-4D72-951B-EF543FFAC689}" name="Story Points Completed"/>
-    <tableColumn id="9" xr3:uid="{9F380ECF-B1CB-4A49-83EB-D3FE6546460F}" name="Names and Contribution Percentage"/>
+    <tableColumn id="1" xr3:uid="{0C90C078-C054-4227-9091-C28BAFE691AF}" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{9F8707D6-34E3-4CEF-B0F1-DAD2AD71531B}" name="User Story" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{AE0C2CB6-5018-4C2F-A209-C5487CF2A08A}" name="Story Tasks" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{679AF5F3-ABDC-491D-B0C6-8362005452C8}" name="Sprint Number" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{581162C1-539F-476A-91CE-4B78BE14DBBE}" name="Sprint Goal" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{E4DFD532-2531-4750-B4F1-447592E45CF2}" name="Story Type" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{BC181D14-6E45-478C-90E5-C3965ADAC5E4}" name="Story Points" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{EEBADD8E-3942-4D72-951B-EF543FFAC689}" name="Story Points Completed" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{9F380ECF-B1CB-4A49-83EB-D3FE6546460F}" name="Names and Contribution Percentage" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="Sprint 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4F1DBC7-2B2E-40E1-874A-10014A92AED4}" name="Table_134" displayName="Table_134" ref="A1:I6" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{E798FD26-B955-48E1-9E08-1D60F4AC7B91}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{38487E82-5A8F-4410-A1A7-E5145186BAA4}" name="User Story" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{130F0886-29B4-46B7-9DE4-DD15E6247A13}" name="Story Tasks" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BAD90E50-4DD8-46A9-AFF1-DE051560D76B}" name="Sprint Number" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{566AEA22-C40C-4B94-98BC-BDB792DE7B91}" name="Sprint Goal" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{0805988D-7C69-4AEC-AF8D-25F2E60CF8EB}" name="Story Type" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{95A89966-30B5-4573-B4A0-86C2D8A2A6E4}" name="Story Points" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{3DD7EE3D-8F81-44FD-81E1-7BAD96DB9A98}" name="Story Points Completed" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{D3B4AAE1-CF4F-4133-9043-3844C41CAC77}" name="Names and Contribution Percentage" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Sprint 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -591,20 +1299,20 @@
       <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="81.58203125" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="81.59765625" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="43.25" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="19.58203125" customWidth="1"/>
+    <col min="5" max="5" width="43.19921875" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" customWidth="1"/>
     <col min="9" max="9" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +1341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -662,7 +1370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -691,7 +1399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -720,7 +1428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -749,7 +1457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -792,195 +1500,439 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.75" customWidth="1"/>
-    <col min="3" max="3" width="35.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="40.69921875" customWidth="1"/>
+    <col min="3" max="3" width="35.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" customWidth="1"/>
+    <col min="8" max="8" width="21.796875" customWidth="1"/>
+    <col min="9" max="9" width="32.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8">
-        <v>2</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="G2" s="19">
+        <v>2</v>
+      </c>
+      <c r="H2" s="19">
         <v>0</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="19">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="A5:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="84.59765625" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" customWidth="1"/>
+    <col min="6" max="26" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="30">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="31">
+        <v>2</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="C4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="30">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="31">
+        <v>2</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="25" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="32">
+        <v>2</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A71F075-EA9E-4381-85F8-B2F73BB54DDD}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
+    <col min="8" max="8" width="22.69921875" customWidth="1"/>
+    <col min="9" max="9" width="43.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>5</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="37">
+        <v>3</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G2" s="37">
+        <v>3</v>
+      </c>
+      <c r="H2" s="37">
         <v>1.5</v>
       </c>
-      <c r="H5" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="I2" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>6</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="37">
+        <v>3</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="37">
+        <v>2</v>
+      </c>
+      <c r="H3" s="37">
         <v>1</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="25">
-        <v>0.15</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="I3" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -990,236 +1942,199 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB27410-4250-4BAA-A4F1-455DDDF71F68}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="2" max="2" width="84.58203125" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="26" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>5</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="37">
+        <v>4</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="37">
+        <v>3</v>
+      </c>
+      <c r="H2" s="37">
+        <v>3</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>7</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="37">
+        <v>4</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="37">
+        <v>2</v>
+      </c>
+      <c r="H3" s="37">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
         <v>9</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="18">
-        <v>2</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="B4" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="37">
+        <v>4</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="37">
+        <v>2</v>
+      </c>
+      <c r="H4" s="37">
+        <v>2</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
+      <c r="B5" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="37">
+        <v>4</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="37">
+        <v>2</v>
+      </c>
+      <c r="H5" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="I5" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
         <v>12</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="22">
-        <v>2</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="18">
-        <v>2</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="22">
-        <v>2</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="B6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="24">
-        <v>2</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A71F075-EA9E-4381-85F8-B2F73BB54DDD}">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="6" width="14.58203125" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="E6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="38">
+        <v>2</v>
+      </c>
+      <c r="H6" s="38">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
-        <v>5</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="8">
-        <v>3</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>6</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8">
-        <v>3</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>36</v>
+      <c r="I6" s="40" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
